--- a/final 2/headers.xlsx
+++ b/final 2/headers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harishsekar/Documents/Project/DataScience/HTC_GLOBAL/TIAA/dataMocking/pythonDataGen/final 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12AC0EB6-0F4E-6D4C-B898-A6F560BE317B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A130822-9DDA-B54C-944E-D4D84F844082}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A527E9FF-4A31-DC43-8689-B0DADB6C0494}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Originating Vendor Plan ID</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>Deferral Percentage - CS1</t>
+  </si>
+  <si>
+    <t>Initial</t>
   </si>
 </sst>
 </file>
@@ -744,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36693013-5325-C24C-AC0C-247E983CCF37}">
   <dimension ref="A1:DO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CW1" sqref="CW1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,6 +803,9 @@
       <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="O1" s="1" t="s">
         <v>112</v>
       </c>
